--- a/budgets/data/supplies/ConstructionEquipments/data/ConstructionEquipments.xlsx
+++ b/budgets/data/supplies/ConstructionEquipments/data/ConstructionEquipments.xlsx
@@ -130,6 +130,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,6 +640,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -682,17 +686,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -991,7 +985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1035,6 +1031,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1043,6 +1042,9 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1051,6 +1053,9 @@
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1059,6 +1064,9 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1067,6 +1075,9 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1075,6 +1086,9 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1083,6 +1097,9 @@
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1091,6 +1108,9 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1099,6 +1119,9 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1107,6 +1130,9 @@
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1115,6 +1141,9 @@
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1123,6 +1152,9 @@
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1131,134 +1163,183 @@
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>204</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>205</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>206</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>207</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>208</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>209</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>210</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>211</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>212</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>213</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>214</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>215</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>216</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>217</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>218</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B31">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A31">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>